--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st02.xlsx
@@ -4724,7 +4724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아렌"]  그래도, 저번엔 낮잠 자고 있을 때 문을 부수고 들어왔던 녀석은 지금도 내 귀찮은 일들을 해결해주느라 바쁘게 돌아다니고 있어.
+    <t xml:space="preserve">[name="아렌"]  그래도, 저번에 낮잠 자고 있을 때 문을 부수고 들어왔던 녀석은 지금도 내 귀찮은 일들을 해결해주느라 바쁘게 돌아다니고 있어.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st02.xlsx
@@ -3104,7 +3104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  “There’s nothing but bullet casings in that place. Just the sight of it gives me a headache. ”
+    <t xml:space="preserve">[name="Adnachiel"]  'There’s nothing but bullet casings in that place. Just the sight of it gives me a headache. '
 </t>
   </si>
   <si>
@@ -3440,7 +3440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  You know that guy with the poker face? He’s trying to get me to “fulfill my obligations” again.
+    <t xml:space="preserve">[name="Ambriel"]  You know that guy with the poker face? He’s trying to get me to 'fulfill my obligations' again.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st02.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st02.xlsx
@@ -2556,7 +2556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  What’s that about?
+    <t xml:space="preserve">[name="Arene"]  What's that about?
 </t>
   </si>
   <si>
@@ -2568,23 +2568,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  Can’t you bend the rules a little bit, Professor? Just sign off for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  You can’t? We have procedures?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  That’s lame. Okay, okay. I’ll head over there if you insist.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  I only just got here. I don’t want to get on Dr. Kal’tsit’s bad side.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  I’ll see you later, Professor.
+    <t xml:space="preserve">[name="Arene"]  Can't you bend the rules a little bit, Professor? Just sign off for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  You can't? We have procedures?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  That's lame. Okay, okay. I'll head over there if you insist.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  I only just got here. I don't want to get on Dr. Kal'tsit's bad side.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  I'll see you later, Professor.
 </t>
   </si>
   <si>
@@ -2596,15 +2596,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Hello there. The workshop isn’t open right now. All five of our craftsmen are involved in a weapon repair contest.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  If you need anything, please come back after 3 o’clock.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  A weapon repair contest? They really have contests for everything, don’t they? 
+    <t xml:space="preserve">[name="??? "]  Hello there. The workshop isn't open right now. All five of our craftsmen are involved in a weapon repair contest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  If you need anything, please come back after 3 o'clock.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  A weapon repair contest? They really have contests for everything, don't they? 
 </t>
   </si>
   <si>
@@ -2612,15 +2612,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Sorry to disappoint, but it’s just a contest where you repair weapons damaged out in the field.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  But if you manage to make a weapon shiny enough to give it a deadly glint, I suppose you’d have a fair chance of winning.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  ...Hm? That doesn’t sound like a bad idea. I’ll give it a try next time.  
+    <t xml:space="preserve">[name="??? "]  Sorry to disappoint, but it's just a contest where you repair weapons damaged out in the field.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  But if you manage to make a weapon shiny enough to give it a deadly glint, I suppose you'd have a fair chance of winning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  ...Hm? That doesn't sound like a bad idea. I'll give it a try next time.  
 </t>
   </si>
   <si>
@@ -2628,11 +2628,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  I don’t want to have to come all the way down here again. The craftsmen may not be around, but you’re here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  It’s just some routine inspection anyway. No need to take it so seriously. How about it, friend? Give it a quick look-over and sign right here? 
+    <t xml:space="preserve">[name="Arene"]  I don't want to have to come all the way down here again. The craftsmen may not be around, but you're here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  It's just some routine inspection anyway. No need to take it so seriously. How about it, friend? Give it a quick look-over and sign right here? 
 </t>
   </si>
   <si>
@@ -2640,7 +2640,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  That’s right.
+    <t xml:space="preserve">[name="Arene"]  That's right.
 </t>
   </si>
   <si>
@@ -2648,27 +2648,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  And I’m technically still an intern assistant. I’m afraid signing my name there isn’t going to do you much help.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  So it needs to be signed off by two people. Perfect. We’ve got two people right here, you and me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  I know my staff better than anyone else, and I know for certain there is nothing wrong with it. If nothing happens, no one is going to find out, and if no one finds out, then we don’t have a problem. Am I right? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  Oh, that’s an interesting way to think about it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  I don’t recommend underestimating the people here, though. Definitely not the strict ones.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  If something does happen, there’s going to be quite a ruckus. Even though they aren’t here right now, all the craftsmen will face punishment. It’ll be even worse for the two of us.
+    <t xml:space="preserve">[name="??? "]  And I'm technically still an intern assistant. I'm afraid signing my name there isn't going to do you much help.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  So it needs to be signed off by two people. Perfect. We've got two people right here, you and me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  I know my staff better than anyone else, and I know for certain there is nothing wrong with it. If nothing happens, no one is going to find out, and if no one finds out, then we don't have a problem. Am I right? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  Oh, that's an interesting way to think about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  I don't recommend underestimating the people here, though. Definitely not the strict ones.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  If something does happen, there's going to be quite a ruckus. Even though they aren't here right now, all the craftsmen will face punishment. It'll be even worse for the two of us.
 </t>
   </si>
   <si>
@@ -2676,7 +2676,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  It may be inflexible, but it’s effective. There are people who don’t maintain their weapons well. 
+    <t xml:space="preserve">[name="??? "]  It may be inflexible, but it's effective. There are people who don't maintain their weapons well. 
 </t>
   </si>
   <si>
@@ -2684,7 +2684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  What kind of moron doesn’t take care of his weapons?
+    <t xml:space="preserve">[name="Arene"]  What kind of moron doesn't take care of his weapons?
 </t>
   </si>
   <si>
@@ -2696,7 +2696,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  You can at least do that for me, right? It’d really piss me off if I had to come all the way here for nothing.  
+    <t xml:space="preserve">[name="Arene"]  You can at least do that for me, right? It'd really piss me off if I had to come all the way here for nothing.  
 </t>
   </si>
   <si>
@@ -2712,11 +2712,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Hm... That look on your face tells me you are still planning something. It doesn’t seem like you’ve quite given up yet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  I’m not sure I understand.
+    <t xml:space="preserve">[name="??? "]  Hm... That look on your face tells me you are still planning something. It doesn't seem like you've quite given up yet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  I'm not sure I understand.
 </t>
   </si>
   <si>
@@ -2728,15 +2728,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  Okay, I’ll inspect it for you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  (Quietly) Just be careful with it, don’t cause any accidents, and it should be fine, right...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  I’m counting on you.
+    <t xml:space="preserve">[name="??? "]  Okay, I'll inspect it for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  (Quietly) Just be careful with it, don't cause any accidents, and it should be fine, right...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  I'm counting on you.
 </t>
   </si>
   <si>
@@ -2748,7 +2748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  You know what I mean, right? The ones they haven’t finished yet are even more dangerous. 
+    <t xml:space="preserve">[name="??? "]  You know what I mean, right? The ones they haven't finished yet are even more dangerous. 
 </t>
   </si>
   <si>
@@ -2756,7 +2756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  No need to worry about me. I’m not that adventurous.
+    <t xml:space="preserve">[name="Arene"]  No need to worry about me. I'm not that adventurous.
 </t>
   </si>
   <si>
@@ -2764,11 +2764,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  Now that’s weird. Did I ever tell you I’m Infected?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  No, you didn’t. But it isn’t hard to tell.
+    <t xml:space="preserve">[name="Arene"]  Now that's weird. Did I ever tell you I'm Infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  No, you didn't. But it isn't hard to tell.
 </t>
   </si>
   <si>
@@ -2780,15 +2780,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  I guess it’s just by observation. There is quite a lot you can learn from someone’s expressions, actions, and the logic in his behavior.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  It sounds kinda like you’re pulling my leg.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  I’m telling the truth.
+    <t xml:space="preserve">[name="??? "]  I guess it's just by observation. There is quite a lot you can learn from someone's expressions, actions, and the logic in his behavior.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  It sounds kinda like you're pulling my leg.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  I'm telling the truth.
 </t>
   </si>
   <si>
@@ -2796,11 +2796,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  Nope, that’s it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  I don’t have a gun, unfortunately.
+    <t xml:space="preserve">[name="Arene"]  Nope, that's it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  I don't have a gun, unfortunately.
 </t>
   </si>
   <si>
@@ -2812,7 +2812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  You’re kind of weird. Intriguing.
+    <t xml:space="preserve">[name="Arene"]  You're kind of weird. Intriguing.
 </t>
   </si>
   <si>
@@ -2820,7 +2820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  That’s not a compliment.
+    <t xml:space="preserve">[name="Arene"]  That's not a compliment.
 </t>
   </si>
   <si>
@@ -2848,7 +2848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  What’s your name, craftsman?
+    <t xml:space="preserve">[name="Arene"]  What's your name, craftsman?
 </t>
   </si>
   <si>
@@ -2856,7 +2856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I’m Adnachiel, Reserve Op Team A4. I’m also an intern in this repair workshop.
+    <t xml:space="preserve">[name="Adnachiel"]  I'm Adnachiel, Reserve Op Team A4. I'm also an intern in this repair workshop.
 </t>
   </si>
   <si>
@@ -2872,7 +2872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Hm... the main Arts Unit doesn’t look like it has any damage to it, and the Caster Source hanging there doesn’t have any apparent damage or cracks, either.
+    <t xml:space="preserve">[name="Adnachiel"]  Hm... the main Arts Unit doesn't look like it has any damage to it, and the Caster Source hanging there doesn't have any apparent damage or cracks, either.
 </t>
   </si>
   <si>
@@ -2892,7 +2892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Oh, could you describe what it’s like?
+    <t xml:space="preserve">[name="Adnachiel"]  Oh, could you describe what it's like?
 </t>
   </si>
   <si>
@@ -2904,11 +2904,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  In that case, why don’t you put your staff in that transparent cabinet there? Then just put your hand in from the opening on the side and use your Arts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  That way, even if your Arts are as volatile as you said, we shouldn’t have anything to worry about.
+    <t xml:space="preserve">[name="Adnachiel"]  In that case, why don't you put your staff in that transparent cabinet there? Then just put your hand in from the opening on the side and use your Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  That way, even if your Arts are as volatile as you said, we shouldn't have anything to worry about.
 </t>
   </si>
   <si>
@@ -2928,15 +2928,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Okay, that’s good. I’ll activate the machine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Don’t worry if you feel pressure in your arm. That’s normal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Okay, we’re ready!
+    <t xml:space="preserve">[name="Adnachiel"]  Okay, that's good. I'll activate the machine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  Don't worry if you feel pressure in your arm. That's normal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  Okay, we're ready!
 </t>
   </si>
   <si>
@@ -2944,7 +2944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  I won’t.
+    <t xml:space="preserve">[name="Arene"]  I won't.
 </t>
   </si>
   <si>
@@ -2952,11 +2952,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Alright, we’re done here!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I’ll take care of the rest. Just leave me your staff and take a break over there.
+    <t xml:space="preserve">[name="Adnachiel"]  Alright, we're done here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  I'll take care of the rest. Just leave me your staff and take a break over there.
 </t>
   </si>
   <si>
@@ -2964,19 +2964,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  Most Sankta are care about guns and crossbows. You look like you’re pretty familiar with staves too. Are all Sankta outside Laterano like this?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  It’s just the master craftsman I work with, Iron Hammer, is an expert in maintaining and forging staves. I also have some friends on my team who need their weapons looked after.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  He’s an expert in staves, but his codename is Iron Hammer?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  That’s right.
+    <t xml:space="preserve">[name="Arene"]  Most Sankta are care about guns and crossbows. You look like you're pretty familiar with staves too. Are all Sankta outside Laterano like this?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  It's just the master craftsman I work with, Iron Hammer, is an expert in maintaining and forging staves. I also have some friends on my team who need their weapons looked after.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  He's an expert in staves, but his codename is Iron Hammer?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  That's right.
 </t>
   </si>
   <si>
@@ -2988,11 +2988,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  You can take a look if you’re interested.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  Don’t mind if I do.
+    <t xml:space="preserve">[name="Adnachiel"]  You can take a look if you're interested.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  Don't mind if I do.
 </t>
   </si>
   <si>
@@ -3004,7 +3004,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"] (That’s more than being just laid-back...)
+    <t xml:space="preserve">[name="Arene"] (That's more than being just laid-back...)
 </t>
   </si>
   <si>
@@ -3020,7 +3020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  That’s just something they all did one time out of spite.
+    <t xml:space="preserve">[name="Adnachiel"]  That's just something they all did one time out of spite.
 </t>
   </si>
   <si>
@@ -3032,11 +3032,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Interesting, isn’t it?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"] Yeah... That’s... very interesting.
+    <t xml:space="preserve">[name="Adnachiel"]  Interesting, isn't it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"] Yeah... That's... very interesting.
 </t>
   </si>
   <si>
@@ -3044,7 +3044,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"] (It’s all handwritten, too. )
+    <t xml:space="preserve">[name="Arene"] (It's all handwritten, too. )
 </t>
   </si>
   <si>
@@ -3072,7 +3072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  Hey, Adnachiel. Who’s this guy?
+    <t xml:space="preserve">[name="Arene"]  Hey, Adnachiel. Who's this guy?
 </t>
   </si>
   <si>
@@ -3080,35 +3080,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Oh, that’s Gunject.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  He’s from Laterano, just like us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  He doesn’t like to make anything gun-related, just swords.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  So he doesn’t have a gun?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Oh, he has one, but he doesn’t like guns, as a thing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I heard he left his at home in Laterano, and he hasn’t been back since.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  'There’s nothing but bullet casings in that place. Just the sight of it gives me a headache. '
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  That’s what he said.
+    <t xml:space="preserve">[name="Adnachiel"]  Oh, that's Gunject.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  He's from Laterano, just like us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  He doesn't like to make anything gun-related, just swords.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  So he doesn't have a gun?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  Oh, he has one, but he doesn't like guns, as a thing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  I heard he left his at home in Laterano, and he hasn't been back since.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  'There's nothing but bullet casings in that place. Just the sight of it gives me a headache. '
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  That's what he said.
 </t>
   </si>
   <si>
@@ -3116,15 +3116,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  I have a feeling I’ll get along with him pretty well.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Well, unfortunately, he got into a fight with his family over that. He can’t even go home anymore.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  If he really hates guns so much, I can’t imagine him having many fond memories of Laterano.
+    <t xml:space="preserve">[name="Arene"]  I have a feeling I'll get along with him pretty well.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  Well, unfortunately, he got into a fight with his family over that. He can't even go home anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  If he really hates guns so much, I can't imagine him having many fond memories of Laterano.
 </t>
   </si>
   <si>
@@ -3156,7 +3156,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I haven’t lived there for a long time.
+    <t xml:space="preserve">[name="Adnachiel"]  I haven't lived there for a long time.
 </t>
   </si>
   <si>
@@ -3164,11 +3164,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  After that, I contracted Oripathy, which means I really don’t have a way to go back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  Wait, so your halo doesn’t float like that because of Oripathy?
+    <t xml:space="preserve">[name="Adnachiel"]  After that, I contracted Oripathy, which means I really don't have a way to go back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  Wait, so your halo doesn't float like that because of Oripathy?
 </t>
   </si>
   <si>
@@ -3176,23 +3176,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  That’s... kind of sad.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  When I was a kid, my parents always praised me and said that with a smile, so I’ve always thought of myself as pretty lucky.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I was born different than others. Doesn’t that sound cool?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Oh, of course, it’s just a joke.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  Don’t be modest. You are very different from the other weirdos here. In a bad way.
+    <t xml:space="preserve">[name="Arene"]  That's... kind of sad.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  When I was a kid, my parents always praised me and said that with a smile, so I've always thought of myself as pretty lucky.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  I was born different than others. Doesn't that sound cool?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  Oh, of course, it's just a joke.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  Don't be modest. You are very different from the other weirdos here. In a bad way.
 </t>
   </si>
   <si>
@@ -3200,7 +3200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I’m not that different from other Sankta. In fact, I have a lot in common with them.
+    <t xml:space="preserve">[name="Adnachiel"]  I'm not that different from other Sankta. In fact, I have a lot in common with them.
 </t>
   </si>
   <si>
@@ -3208,7 +3208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Such as... let’s see, like how I can’t wear a hat?
+    <t xml:space="preserve">[name="Adnachiel"]  Such as... let's see, like how I can't wear a hat?
 </t>
   </si>
   <si>
@@ -3216,15 +3216,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  Ahem, yeah, you’re right. That’s true.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  Wearing a hat is like getting stuffed into an egg with no cracks. It’s gross.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  Other than the Notarial Hall people or the Apostolic Knights, with all their training, I don’t think there are many Sankta who could stand to wear a hat. Maybe some weirdos who love to fight.
+    <t xml:space="preserve">[name="Arene"]  Ahem, yeah, you're right. That's true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  Wearing a hat is like getting stuffed into an egg with no cracks. It's gross.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  Other than the Notarial Hall people or the Apostolic Knights, with all their training, I don't think there are many Sankta who could stand to wear a hat. Maybe some weirdos who love to fight.
 </t>
   </si>
   <si>
@@ -3232,7 +3232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  In any case, maybe it’s because of my halo, but I couldn’t get my firearm qualifications, and my family moved out of Laterano shortly after that.
+    <t xml:space="preserve">[name="Adnachiel"]  In any case, maybe it's because of my halo, but I couldn't get my firearm qualifications, and my family moved out of Laterano shortly after that.
 </t>
   </si>
   <si>
@@ -3240,7 +3240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Laterano doesn’t permit Infected in its borders. I’m sure you haven’t been back since your infection, am I correct?
+    <t xml:space="preserve">[name="Adnachiel"]  Laterano doesn't permit Infected in its borders. I'm sure you haven't been back since your infection, am I correct?
 </t>
   </si>
   <si>
@@ -3248,11 +3248,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  That’s why... I don’t feel particularly nostalgic about Laterano.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I don’t remember a lot about my childhood there, either.
+    <t xml:space="preserve">[name="Adnachiel"]  That's why... I don't feel particularly nostalgic about Laterano.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  I don't remember a lot about my childhood there, either.
 </t>
   </si>
   <si>
@@ -3268,11 +3268,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I really wish I didn’t lose that book in the move... *Sigh*
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  (My parents got me a huge cake every year. They knew I couldn’t finish it all, but they still left me home alone to deal with that block of sugary mess by myself.) 
+    <t xml:space="preserve">[name="Adnachiel"]  I really wish I didn't lose that book in the move... *Sigh*
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  (My parents got me a huge cake every year. They knew I couldn't finish it all, but they still left me home alone to deal with that block of sugary mess by myself.) 
 </t>
   </si>
   <si>
@@ -3288,11 +3288,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Oh, I see you don’t like desserts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I think you’re the first Laterano I’ve met who doesn’t.
+    <t xml:space="preserve">[name="Adnachiel"]  Oh, I see you don't like desserts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  I think you're the first Laterano I've met who doesn't.
 </t>
   </si>
   <si>
@@ -3304,27 +3304,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I don’t normally tell people I can see through them, since they don’t like it much. Most times I just keep my mouth shut.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  It doesn’t seem like you mind, though.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  Yeah, it’s fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  I don’t mind. Weirdos like you are more interesting than normal people.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I think you’re much more of a weirdo for not liking desserts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I’ll try to make some that aren’t as sweet. You’ll have to give them a try.
+    <t xml:space="preserve">[name="Adnachiel"]  I don't normally tell people I can see through them, since they don't like it much. Most times I just keep my mouth shut.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  It doesn't seem like you mind, though.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  Yeah, it's fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  I don't mind. Weirdos like you are more interesting than normal people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  I think you're much more of a weirdo for not liking desserts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  I'll try to make some that aren't as sweet. You'll have to give them a try.
 </t>
   </si>
   <si>
@@ -3336,15 +3336,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  I’ve come to understand one thing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  You’re a Laterano Sankta through and through.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  Even though you don’t have a gun, and your halo’s tilted.
+    <t xml:space="preserve">[name="Arene"]  I've come to understand one thing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  You're a Laterano Sankta through and through.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  Even though you don't have a gun, and your halo's tilted.
 </t>
   </si>
   <si>
@@ -3352,15 +3352,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  You’re right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I still have memories of that place, and it’s just the city that I can’t go back to, not my home. Your hometown is something you can always reach out for, no matter when or where. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  There’s travel, mail, messages, and photos that can move between the cities.
+    <t xml:space="preserve">[name="Adnachiel"]  You're right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  I still have memories of that place, and it's just the city that I can't go back to, not my home. Your hometown is something you can always reach out for, no matter when or where. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  There's travel, mail, messages, and photos that can move between the cities.
 </t>
   </si>
   <si>
@@ -3368,11 +3368,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="??? "]  You know, I get what you’re saying.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="??? "]  But there’s also people who like to revisit a place, to smell and touch it in person. Otherwise, they get homesick.
+    <t xml:space="preserve">[name="??? "]  You know, I get what you're saying.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  But there's also people who like to revisit a place, to smell and touch it in person. Otherwise, they get homesick.
 </t>
   </si>
   <si>
@@ -3396,7 +3396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  So what’s your name, cutie?
+    <t xml:space="preserve">[name="Ambriel"]  So what's your name, cutie?
 </t>
   </si>
   <si>
@@ -3408,7 +3408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  You can just leave it over there. I’m still working on Arene’s weapon.
+    <t xml:space="preserve">[name="Adnachiel"]  You can just leave it over there. I'm still working on Arene's weapon.
 </t>
   </si>
   <si>
@@ -3416,7 +3416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  Hm? What’s that smell? It smells so good! It’s unlike anything on the market...
+    <t xml:space="preserve">[name="Ambriel"]  Hm? What's that smell? It smells so good! It's unlike anything on the market...
 </t>
   </si>
   <si>
@@ -3428,27 +3428,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  Hmm... think I’m gonna pass.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  Something tells me that’s not a good idea.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  But if that smell can knock me out for the whole day, I’ll think about it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  You know that guy with the poker face? He’s trying to get me to 'fulfill my obligations' again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  Instead of running away all the time, I’m thinking it makes hella more sense if I just pass out for the day.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  Actually, those guys are so braindead, just a day probably isn’t gonna be enough.
+    <t xml:space="preserve">[name="Ambriel"]  Hmm... think I'm gonna pass.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  Something tells me that's not a good idea.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  But if that smell can knock me out for the whole day, I'll think about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  You know that guy with the poker face? He's trying to get me to 'fulfill my obligations' again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  Instead of running away all the time, I'm thinking it makes hella more sense if I just pass out for the day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  Actually, those guys are so braindead, just a day probably isn't gonna be enough.
 </t>
   </si>
   <si>
@@ -3464,7 +3464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  They haven’t come for you yet? Like, to oversee your fulfillment of your obligations as a citizen and all that? 
+    <t xml:space="preserve">[name="Ambriel"]  They haven't come for you yet? Like, to oversee your fulfillment of your obligations as a citizen and all that? 
 </t>
   </si>
   <si>
@@ -3480,7 +3480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  If you figure out how to use them, they aren’t so bad.
+    <t xml:space="preserve">[name="Arene"]  If you figure out how to use them, they aren't so bad.
 </t>
   </si>
   <si>
@@ -3496,7 +3496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Arene, I’m finished inspecting your staff!
+    <t xml:space="preserve">[name="Adnachiel"]  Arene, I'm finished inspecting your staff!
 </t>
   </si>
   <si>
@@ -3504,7 +3504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  The tiny bit of corrosion isn’t going to affect your Arts, but if you want me to do some maintenance work on it, I can take care of that right now.
+    <t xml:space="preserve">[name="Adnachiel"]  The tiny bit of corrosion isn't going to affect your Arts, but if you want me to do some maintenance work on it, I can take care of that right now.
 </t>
   </si>
   <si>
@@ -3512,7 +3512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  (Quietly) Even if it looks like you don’t need them to.
+    <t xml:space="preserve">[name="Adnachiel"]  (Quietly) Even if it looks like you don't need them to.
 </t>
   </si>
   <si>
@@ -3524,15 +3524,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Now let’s take a look at Ambriel’s rifle... Hmm.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  It’s all yours.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  You don’t work on the gun yourself?
+    <t xml:space="preserve">[name="Adnachiel"]  Now let's take a look at Ambriel's rifle... Hmm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  It's all yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  You don't work on the gun yourself?
 </t>
   </si>
   <si>
@@ -3540,7 +3540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  But that’s such a pain sometimes. This is easier.
+    <t xml:space="preserve">[name="Ambriel"]  But that's such a pain sometimes. This is easier.
 </t>
   </si>
   <si>
@@ -3548,7 +3548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  Well... I can’t have that.
+    <t xml:space="preserve">[name="Ambriel"]  Well... I can't have that.
 </t>
   </si>
   <si>
@@ -3560,31 +3560,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  I’m not that stupid.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  Hmm... You’re more serious than I thought.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  If I didn’t need my gun to get by, I wouldn’t mind letting it gather dust in my closet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  Oh, I guess I could probably do that in Laterano, but if I actually left it to gather dust, I’d have some relative on my case the very next day.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  That’s why I gave up on that idea.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Ambriel, your rifle’s fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  It didn’t have any problems to begin with. I calibrated it just last week.
+    <t xml:space="preserve">[name="Ambriel"]  I'm not that stupid.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  Hmm... You're more serious than I thought.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  If I didn't need my gun to get by, I wouldn't mind letting it gather dust in my closet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  Oh, I guess I could probably do that in Laterano, but if I actually left it to gather dust, I'd have some relative on my case the very next day.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  That's why I gave up on that idea.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  Ambriel, your rifle's fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  It didn't have any problems to begin with. I calibrated it just last week.
 </t>
   </si>
   <si>
@@ -3600,7 +3600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  It’s not bad.
+    <t xml:space="preserve">[name="Ambriel"]  It's not bad.
 </t>
   </si>
   <si>
@@ -3616,7 +3616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  You don’t hold back, do you? You’ll never be popular with girls if you’re that blunt up front, you know?
+    <t xml:space="preserve">[name="Ambriel"]  You don't hold back, do you? You'll never be popular with girls if you're that blunt up front, you know?
 </t>
   </si>
   <si>
@@ -3628,39 +3628,39 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  You’re right. It’s more or less like that. I’m not very a good fit for that place. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  Rather than having to defend the city and get yelled at about glory and honor all day, I’d rather make myself some money.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  There’s less to worry about, and life’s a lot more comfortable.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  What’s not to like?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  It sounds like you don’t have many fond memories of Laterano.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  If life’s not bad, anywhere’s fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  It’s not like there’s a rule that Sankta have to live out their lives in Laterano anyway.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  The world’s a big place. Gotta see more of it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Your rifle’s ready, Ambriel!
+    <t xml:space="preserve">[name="Ambriel"]  You're right. It's more or less like that. I'm not very a good fit for that place. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  Rather than having to defend the city and get yelled at about glory and honor all day, I'd rather make myself some money.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  There's less to worry about, and life's a lot more comfortable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  What's not to like?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  It sounds like you don't have many fond memories of Laterano.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  If life's not bad, anywhere's fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  It's not like there's a rule that Sankta have to live out their lives in Laterano anyway.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  The world's a big place. Gotta see more of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  Your rifle's ready, Ambriel!
 </t>
   </si>
   <si>
@@ -3668,11 +3668,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ambriel"]  Yep, I couldn’t make it prettier if I tried!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ambriel"]  You two keep talking. I’ll head back and chill. Laters.
+    <t xml:space="preserve">[name="Ambriel"]  Yep, I couldn't make it prettier if I tried!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ambriel"]  You two keep talking. I'll head back and chill. Laters.
 </t>
   </si>
   <si>
@@ -3680,11 +3680,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  It’s almost time for lunch. Is there anything else you need me to look at?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  If not, I’ll lock up and head out to eat.
+    <t xml:space="preserve">[name="Adnachiel"]  It's almost time for lunch. Is there anything else you need me to look at?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  If not, I'll lock up and head out to eat.
 </t>
   </si>
   <si>
@@ -3704,11 +3704,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  Do you think he’d owe me one if I told him Ambriel stopped by here?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Adnachiel"]  Uh? That’s a joke, isn’t it? 
+    <t xml:space="preserve">[name="Arene"]  Do you think he'd owe me one if I told him Ambriel stopped by here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Adnachiel"]  Uh? That's a joke, isn't it? 
 </t>
   </si>
   <si>
@@ -3720,7 +3720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Adnachiel"]  I can tell you’re kidding, but others might not be able to tell, so I suggest you be a little more careful with that.
+    <t xml:space="preserve">[name="Adnachiel"]  I can tell you're kidding, but others might not be able to tell, so I suggest you be a little more careful with that.
 </t>
   </si>
   <si>
@@ -3736,23 +3736,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  You know, your observation is on another level, but there’s one thing you got wrong.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  I’ll be back this afternoon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  It sounds like this Gunject is a pretty interesting person. I wouldn’t mind stopping by again just to meet him.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  I’ll see you again in the afternoon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  I’m back, Professor.
+    <t xml:space="preserve">[name="Arene"]  You know, your observation is on another level, but there's one thing you got wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  I'll be back this afternoon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  It sounds like this Gunject is a pretty interesting person. I wouldn't mind stopping by again just to meet him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  I'll see you again in the afternoon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  I'm back, Professor.
 </t>
   </si>
   <si>
@@ -3760,11 +3760,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  Oh... I can’t give you this, though.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  You can tell? There’s no one at the workshop, unfortunately. I copied their signatures. They didn’t sign off on it. 
+    <t xml:space="preserve">[name="Arene"]  Oh... I can't give you this, though.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  You can tell? There's no one at the workshop, unfortunately. I copied their signatures. They didn't sign off on it. 
 </t>
   </si>
   <si>
@@ -3772,7 +3772,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  Don’t worry. I’ll go there again in the afternoon. Give me another certification form. I’ll get their real signatures after they finish with their competition. 
+    <t xml:space="preserve">[name="Arene"]  Don't worry. I'll go there again in the afternoon. Give me another certification form. I'll get their real signatures after they finish with their competition. 
 </t>
   </si>
   <si>
@@ -3780,11 +3780,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  Haha, don’t say that, Professor. Haven’t I always followed your instructions?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  Eh, come on, don’t give me that look.
+    <t xml:space="preserve">[name="Arene"]  Haha, don't say that, Professor. Haven't I always followed your instructions?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  Eh, come on, don't give me that look.
 </t>
   </si>
   <si>
@@ -3796,11 +3796,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Arene"]  I met a lot of interesting people, and it’s not a bad idea to spend a little more time because of that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Arene"]  How’s that?
+    <t xml:space="preserve">[name="Arene"]  I met a lot of interesting people, and it's not a bad idea to spend a little more time because of that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Arene"]  How's that?
 </t>
   </si>
   <si>
